--- a/NformTester/NformTester/Keywordscripts/600.20.20.120_UsersCanNotEditOnActionSetsIfTheyDoNotHaveRightsToAllAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.120_UsersCanNotEditOnActionSetsIfTheyDoNotHaveRightsToAllAction.xlsx
@@ -4131,9 +4131,6 @@
     <t>Advanced Notification</t>
   </si>
   <si>
-    <t>"C:\Nform\test.txt"</t>
-  </si>
-  <si>
     <t>Registration</t>
   </si>
   <si>
@@ -4206,6 +4203,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\test.txt"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4436,74 +4437,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4515,7 +4448,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4794,8 +4727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4880,7 +4813,7 @@
         <v>890</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4948,7 +4881,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4966,7 +4899,7 @@
         <v>900</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -5214,7 +5147,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -5244,7 +5177,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -5274,7 +5207,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>917</v>
+        <v>941</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5304,7 +5237,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -5371,7 +5304,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>906</v>
@@ -5401,7 +5334,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="4">
@@ -5427,14 +5360,14 @@
     </row>
     <row r="22" spans="1:14" ht="15">
       <c r="A22" s="18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -5542,7 +5475,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -5568,7 +5501,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -5618,10 +5551,10 @@
         <v>7</v>
       </c>
       <c r="H29" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>929</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>930</v>
       </c>
       <c r="J29" s="4" t="b">
         <v>0</v>
@@ -5648,10 +5581,10 @@
         <v>7</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>929</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>930</v>
       </c>
       <c r="J30" s="4" t="b">
         <v>0</v>
@@ -5678,10 +5611,10 @@
         <v>7</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>929</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>930</v>
       </c>
       <c r="J31" s="4" t="b">
         <v>0</v>
@@ -5708,10 +5641,10 @@
         <v>7</v>
       </c>
       <c r="H32" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>929</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>930</v>
       </c>
       <c r="J32" s="4" t="b">
         <v>0</v>
@@ -5738,10 +5671,10 @@
         <v>7</v>
       </c>
       <c r="H33" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>929</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>930</v>
       </c>
       <c r="J33" s="4" t="b">
         <v>0</v>
@@ -5768,10 +5701,10 @@
         <v>7</v>
       </c>
       <c r="H34" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>929</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>930</v>
       </c>
       <c r="J34" s="4" t="b">
         <v>0</v>
@@ -5834,7 +5767,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -5864,7 +5797,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -5890,7 +5823,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -5916,7 +5849,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -5942,7 +5875,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -5968,7 +5901,7 @@
         <v>13</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -6054,7 +5987,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -6130,7 +6063,7 @@
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>894</v>
@@ -6234,10 +6167,10 @@
         <v>7</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J53" s="4" t="b">
         <v>0</v>
@@ -6264,10 +6197,10 @@
         <v>7</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J54" s="4" t="b">
         <v>0</v>
@@ -6294,13 +6227,13 @@
         <v>7</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -6324,10 +6257,10 @@
         <v>7</v>
       </c>
       <c r="H56" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>937</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>938</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>254</v>
@@ -6366,7 +6299,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -6642,7 +6575,7 @@
         <v>55</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -6692,7 +6625,7 @@
         <v>55</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
